--- a/dados.xlsx
+++ b/dados.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,532 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>partial_link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jazz Club</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10312-1.jpg?202212120445</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>/sets/10312-1/Jazz-Club</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Wildflower Bouquet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10313-1.jpg?202301030423</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>/sets/10313-1/Wildflower-Bouquet</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dried Flower Centrepiece</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10314-1.jpg?202301030424</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>/sets/10314-1/Dried-Flower-Centrepiece</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tranquil Garden</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10315-1.jpg?202303230615</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>/sets/10315-1/Tranquil-Garden</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The Lord of the Rings: Rivendell</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10316-1.jpg?202302060243</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>/sets/10316-1/The-Lord-of-the-Rings-Rivendell</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Land Rover Classic Defender 90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10317-1.jpg?202303160947</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>/sets/10317-1/Land-Rover-Classic-Defender-90</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Concorde</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10318-1.jpg?202308040949</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>/sets/10318-1/Concorde</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eldorado Fortress</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10320-1.jpg?202306140313</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>/sets/10320-1/Eldorado-Fortress</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Corvette</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10321-1.jpg?202306300156</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>/sets/10321-1/Corvette</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PAC-MAN Arcade</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10323-1.jpg?202305190122</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>/sets/10323-1/PAC-MAN-Arcade</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alpine Lodge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10325-1.jpg?202309090209</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>/sets/10325-1/Alpine-Lodge</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Learn About Chinese Culture</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10411-1.jpg?202211051115</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>/sets/10411-1/Learn-About-Chinese-Culture</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>The Majestic Horse</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/010423-1.jpg?202304010940</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>/sets/010423-1/The-Majestic-Horse</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bakey with Cakey Fun</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10785-1.jpg?202303230615</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>/sets/10785-1/Bakey-with-Cakey-Fun</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gabby &amp; MerCat's Ship &amp; Spa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10786-1.jpg?202303230615</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>/sets/10786-1/Gabby-MerCat-s-Ship-Spa</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Kitty Fairy's Garden Party</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10787-1.jpg?202303230615</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>/sets/10787-1/Kitty-Fairy-s-Garden-Party</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Gabby's Dollhouse</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10788-1.jpg?202303230615</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>/sets/10788-1/Gabby-s-Dollhouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Spider-Man's Car and Doc Ock</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10789-1.jpg?202212020933</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>/sets/10789-1/Spider-Man-s-Car-and-Doc-Ock</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Team Spidey at Green Goblin's Lighthouse</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10790-1.jpg?202212020933</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>/sets/10790-1/Team-Spidey-at-Green-Goblin-s-Lighthouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Team Spidey's Mobile Headquarters</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10791-1.jpg?202212020933</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>/sets/10791-1/Team-Spidey-s-Mobile-Headquarters</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Alphabet Town</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10935-1.jpg?202212020934</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>/sets/10935-1/Alphabet-Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Growing Carrot</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10981-1.jpg?202301010108</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>/sets/10981-1/Growing-Carrot</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fruit and Vegetable Tractor</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10982-1.jpg?202301020203</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>/sets/10982-1/Fruit-and-Vegetable-Tractor</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Organic Market</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10983-1.jpg?202301010108</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>/sets/10983-1/Organic-Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Organic Garden</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://images.brickset.com/sets/small/10984-1.jpg?202301010109</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>/sets/10984-1/Organic-Garden</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>